--- a/olympiad_analysis/norway_beatlon_genders.xlsx
+++ b/olympiad_analysis/norway_beatlon_genders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rexandel\Desktop\GitHub\big_data_research\olympiad_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A338986-4A27-4DED-B4DC-D5CA4FB8666A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707482E8-8CBE-42A6-B906-B421568826A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CF086F1-F5FC-4AD6-8255-4DF0CBD20F6A}"/>
   </bookViews>
@@ -294,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -306,22 +306,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -333,17 +321,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -673,7 +652,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,85 +670,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="14">
-        <v>3</v>
+      <c r="A2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -778,70 +757,70 @@
         <v>0</v>
       </c>
       <c r="H2" s="4">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>2</v>
-      </c>
-      <c r="K2" s="4">
-        <v>1</v>
-      </c>
-      <c r="L2" s="4">
-        <v>1</v>
-      </c>
-      <c r="M2" s="4">
-        <v>2</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>1</v>
-      </c>
-      <c r="R2" s="19">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="12">
         <f>SUM(B2:D2)</f>
-        <v>5</v>
-      </c>
-      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="10">
         <f>SUM(J2:L2)</f>
-        <v>4</v>
-      </c>
-      <c r="T2" s="19">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
         <f>SUM(B2:I2)</f>
-        <v>10</v>
-      </c>
-      <c r="U2" s="15">
+        <v>2</v>
+      </c>
+      <c r="U2" s="10">
         <f>SUM(J2:Q2)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="14">
-        <v>1</v>
+      <c r="A3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
@@ -849,413 +828,413 @@
       <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="I3" s="5">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4">
-        <v>2</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>1</v>
-      </c>
-      <c r="R3" s="19">
-        <f t="shared" ref="R3:R10" si="0">SUM(B3:D3)</f>
-        <v>3</v>
-      </c>
-      <c r="S3" s="2">
-        <f t="shared" ref="S3:S10" si="1">SUM(J3:L3)</f>
-        <v>2</v>
-      </c>
-      <c r="T3" s="19">
-        <f>SUM(B3:I3)</f>
-        <v>7</v>
-      </c>
-      <c r="U3" s="15">
-        <f>SUM(J3:Q3)</f>
-        <v>5</v>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12">
+        <f t="shared" ref="R3:R9" si="0">SUM(B3:D3)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="10">
+        <f t="shared" ref="S3:S9" si="1">SUM(J3:L3)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <f t="shared" ref="T3:T10" si="2">SUM(B3:I3)</f>
+        <v>1</v>
+      </c>
+      <c r="U3" s="10">
+        <f t="shared" ref="U3:U10" si="3">SUM(J3:Q3)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>1</v>
+      </c>
+      <c r="R4" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="S4" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="U4" s="10">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="S5" s="10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T5" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="U5" s="10">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="S6" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="U6" s="10">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1</v>
+      </c>
+      <c r="R7" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="S7" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="U7" s="10">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="14">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>0</v>
-      </c>
-      <c r="R4" s="19">
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S8" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="T4" s="19">
-        <f>SUM(B4:I4)</f>
+      <c r="T8" s="2">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="U4" s="15">
-        <f>SUM(J4:Q4)</f>
+      <c r="U8" s="10">
+        <f t="shared" si="3"/>
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="14">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>1</v>
-      </c>
-      <c r="R5" s="19">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="S5" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T5" s="19">
-        <f>SUM(B5:I5)</f>
-        <v>6</v>
-      </c>
-      <c r="U5" s="15">
-        <f>SUM(J5:Q5)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="14">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="19">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="S6" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="19">
-        <f>SUM(B6:I6)</f>
-        <v>11</v>
-      </c>
-      <c r="U6" s="15">
-        <f>SUM(J6:Q6)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="14">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>2</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>0</v>
-      </c>
-      <c r="R7" s="19">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="S7" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="T7" s="19">
-        <f>SUM(B7:I7)</f>
-        <v>8</v>
-      </c>
-      <c r="U7" s="15">
-        <f>SUM(J7:Q7)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="14">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>1</v>
-      </c>
-      <c r="R8" s="19">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="S8" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T8" s="19">
-        <f>SUM(B8:I8)</f>
-        <v>6</v>
-      </c>
-      <c r="U8" s="15">
-        <f>SUM(J8:Q8)</f>
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="14">
-        <v>0</v>
+      <c r="A9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -1263,117 +1242,117 @@
       <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>0</v>
-      </c>
-      <c r="R9" s="19">
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>2</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1</v>
+      </c>
+      <c r="R9" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="2">
+        <v>3</v>
+      </c>
+      <c r="S9" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="19">
-        <f>SUM(B9:I9)</f>
-        <v>1</v>
-      </c>
-      <c r="U9" s="15">
-        <f>SUM(J9:Q9)</f>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="U9" s="10">
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="16">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1</v>
-      </c>
-      <c r="J10" s="18">
-        <v>0</v>
-      </c>
-      <c r="K10" s="18">
-        <v>0</v>
-      </c>
-      <c r="L10" s="18">
-        <v>0</v>
-      </c>
-      <c r="M10" s="18">
-        <v>0</v>
-      </c>
-      <c r="N10" s="18">
-        <v>0</v>
-      </c>
-      <c r="O10" s="18">
-        <v>0</v>
-      </c>
-      <c r="P10" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-      <c r="R10" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="20">
-        <f>SUM(B10:I10)</f>
-        <v>2</v>
-      </c>
-      <c r="U10" s="17">
-        <f>SUM(J10:Q10)</f>
-        <v>1</v>
+      <c r="A10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>2</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>2</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>1</v>
+      </c>
+      <c r="R10" s="13">
+        <f>SUM(B10:D10)</f>
+        <v>5</v>
+      </c>
+      <c r="S10" s="11">
+        <f>SUM(J10:L10)</f>
+        <v>4</v>
+      </c>
+      <c r="T10" s="16">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="U10" s="11">
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1393,158 +1372,6 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
